--- a/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
+++ b/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://steelgo0-my.sharepoint.com/personal/kevin_barrios_steelgo_com/Documents/Kevin/Archivo/BlackBook/BLACKBOOK/1. BlackBook Operaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://steelgo0-my.sharepoint.com/personal/jose_castillo_steelgo_com/Documents/Escritorio/LibroNegro/1. BlackBook Operaciones/2 BlackBook BackEnd080121/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD498833-A892-4EB3-AA17-43281F206A85}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{688B1C6A-4DB7-4277-8B16-F726956A2DF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{718BEB3B-7B62-444F-9197-0D41EC0A9ADA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{718BEB3B-7B62-444F-9197-0D41EC0A9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="1. BB BackEnd" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +347,9 @@
   </si>
   <si>
     <t>Jan 21</t>
+  </si>
+  <si>
+    <t>dudas</t>
   </si>
 </sst>
 </file>
@@ -464,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +527,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="54">
     <border>
@@ -1222,7 +1230,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1749,6 +1757,84 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,89 +1877,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1886,6 +1897,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2202,7 +2218,7 @@
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2232,25 +2248,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -2260,16 +2276,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="212"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="182"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="213">
+      <c r="AE2" s="183">
         <v>2019</v>
       </c>
-      <c r="AF2" s="214"/>
+      <c r="AF2" s="184"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -2307,25 +2323,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -2335,8 +2351,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="212"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="182"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -2375,41 +2391,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="199"/>
-      <c r="Y6" s="199"/>
-      <c r="Z6" s="200"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="201" t="s">
+      <c r="AB6" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="202"/>
-      <c r="AD6" s="202"/>
-      <c r="AE6" s="202"/>
-      <c r="AF6" s="203"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="193"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -2453,37 +2469,37 @@
       <c r="F8" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="190" t="s">
+      <c r="H8" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="190" t="s">
+      <c r="I8" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="190" t="s">
+      <c r="J8" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="190" t="s">
+      <c r="K8" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="190" t="s">
+      <c r="L8" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="190" t="s">
+      <c r="M8" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="190" t="s">
+      <c r="N8" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="190" t="s">
+      <c r="O8" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="190" t="s">
+      <c r="P8" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="206" t="s">
+      <c r="Q8" s="200" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="194" t="s">
@@ -2492,25 +2508,25 @@
       <c r="S8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="184" t="s">
+      <c r="T8" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="186" t="s">
+      <c r="U8" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="188" t="s">
+      <c r="V8" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="190" t="s">
+      <c r="W8" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="192" t="s">
+      <c r="X8" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="176" t="s">
+      <c r="Y8" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="204" t="s">
+      <c r="Z8" s="198" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -2525,28 +2541,28 @@
       <c r="D9" s="11"/>
       <c r="E9" s="195"/>
       <c r="F9" s="195"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="207"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="201"/>
       <c r="R9" s="195"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="185"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="205"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="199"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -2574,36 +2590,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="180"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="206"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="181" t="s">
+      <c r="AB10" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="183"/>
+      <c r="AC10" s="208"/>
+      <c r="AD10" s="208"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="209"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1">
       <c r="B11" s="21"/>
@@ -2842,36 +2858,36 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="180"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="206"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="181" t="s">
+      <c r="AB18" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="183"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="208"/>
+      <c r="AE18" s="208"/>
+      <c r="AF18" s="209"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
       <c r="B19" s="131" t="s">
@@ -3197,7 +3213,9 @@
       <c r="D25" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="129"/>
+      <c r="E25" s="218" t="s">
+        <v>96</v>
+      </c>
       <c r="F25" s="152"/>
       <c r="G25" s="153"/>
       <c r="H25" s="153"/>
@@ -3346,36 +3364,36 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="180"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="205"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="205"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="206"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="181" t="s">
+      <c r="AB28" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="182"/>
-      <c r="AF28" s="183"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="208"/>
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="209"/>
     </row>
     <row r="29" spans="2:32" s="3" customFormat="1">
       <c r="B29" s="58"/>
@@ -3580,28 +3598,28 @@
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="179"/>
-      <c r="R35" s="179"/>
-      <c r="S35" s="179"/>
-      <c r="T35" s="179"/>
-      <c r="U35" s="179"/>
-      <c r="V35" s="179"/>
-      <c r="W35" s="179"/>
-      <c r="X35" s="179"/>
-      <c r="Y35" s="179"/>
-      <c r="Z35" s="180"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="205"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="205"/>
+      <c r="O35" s="205"/>
+      <c r="P35" s="205"/>
+      <c r="Q35" s="205"/>
+      <c r="R35" s="205"/>
+      <c r="S35" s="205"/>
+      <c r="T35" s="205"/>
+      <c r="U35" s="205"/>
+      <c r="V35" s="205"/>
+      <c r="W35" s="205"/>
+      <c r="X35" s="205"/>
+      <c r="Y35" s="205"/>
+      <c r="Z35" s="206"/>
     </row>
     <row r="36" spans="2:32" s="3" customFormat="1">
       <c r="B36" s="146" t="s">
@@ -3714,28 +3732,28 @@
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="179"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="179"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="179"/>
-      <c r="X39" s="179"/>
-      <c r="Y39" s="179"/>
-      <c r="Z39" s="180"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
+      <c r="S39" s="205"/>
+      <c r="T39" s="205"/>
+      <c r="U39" s="205"/>
+      <c r="V39" s="205"/>
+      <c r="W39" s="205"/>
+      <c r="X39" s="205"/>
+      <c r="Y39" s="205"/>
+      <c r="Z39" s="206"/>
     </row>
     <row r="40" spans="2:32">
       <c r="B40" s="58"/>
@@ -3820,29 +3838,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="E35:Z35"/>
     <mergeCell ref="E39:Z39"/>
@@ -3852,1526 +3847,6 @@
     <mergeCell ref="AB18:AF18"/>
     <mergeCell ref="E28:Z28"/>
     <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="R8:R9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB19F26-B787-43E2-B850-76D151E62E61}">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B1:AG40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="7.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="15.375" style="1" customWidth="1"/>
-    <col min="20" max="22" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="26" width="12.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="12.375" style="4" customWidth="1"/>
-    <col min="31" max="32" width="10.875" style="4"/>
-    <col min="33" max="33" width="10.875" style="3"/>
-    <col min="34" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:32" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="213">
-        <v>2019</v>
-      </c>
-      <c r="AF2" s="214"/>
-    </row>
-    <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="196" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="199"/>
-      <c r="Y6" s="199"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="201" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="202"/>
-      <c r="AD6" s="202"/>
-      <c r="AE6" s="202"/>
-      <c r="AF6" s="203"/>
-    </row>
-    <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="1"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="18.75" thickBot="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="194" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="194" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="190" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="190" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="190" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="190" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="190" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="190" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="190" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="190" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="190" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="206" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="184" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="186" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="190" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="204" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA8" s="1"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="185"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="205"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="180"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="181" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="183"/>
-    </row>
-    <row r="11" spans="2:32" s="3" customFormat="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="36"/>
-    </row>
-    <row r="12" spans="2:32" s="3" customFormat="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-    </row>
-    <row r="13" spans="2:32" s="3" customFormat="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="50"/>
-    </row>
-    <row r="14" spans="2:32" s="3" customFormat="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-    </row>
-    <row r="15" spans="2:32" s="3" customFormat="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="50"/>
-    </row>
-    <row r="16" spans="2:32" s="3" customFormat="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="50"/>
-    </row>
-    <row r="17" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="50"/>
-    </row>
-    <row r="18" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="180"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="183"/>
-    </row>
-    <row r="19" spans="2:32" s="3" customFormat="1">
-      <c r="B19" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="135">
-        <v>108.20530523255815</v>
-      </c>
-      <c r="O19" s="135">
-        <v>83.92788879235448</v>
-      </c>
-      <c r="P19" s="135">
-        <v>73.514541088580572</v>
-      </c>
-      <c r="Q19" s="135">
-        <v>66.502703514568935</v>
-      </c>
-      <c r="R19" s="135">
-        <v>21</v>
-      </c>
-      <c r="S19" s="71">
-        <f>V19</f>
-        <v>6</v>
-      </c>
-      <c r="T19" s="72">
-        <v>15</v>
-      </c>
-      <c r="U19" s="73">
-        <v>10</v>
-      </c>
-      <c r="V19" s="74">
-        <v>6</v>
-      </c>
-      <c r="W19" s="75">
-        <v>5</v>
-      </c>
-      <c r="X19" s="76">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="50"/>
-    </row>
-    <row r="20" spans="2:32" s="3" customFormat="1">
-      <c r="B20" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="172">
-        <v>7.4773609314359639</v>
-      </c>
-      <c r="O20" s="172">
-        <v>7.1895777178796045</v>
-      </c>
-      <c r="P20" s="163">
-        <v>19.133928571428573</v>
-      </c>
-      <c r="Q20" s="163">
-        <v>51.563752276867028</v>
-      </c>
-      <c r="R20" s="163">
-        <v>64</v>
-      </c>
-      <c r="S20" s="71">
-        <f>V20</f>
-        <v>12</v>
-      </c>
-      <c r="T20" s="72">
-        <v>18</v>
-      </c>
-      <c r="U20" s="73">
-        <v>15</v>
-      </c>
-      <c r="V20" s="74">
-        <v>12</v>
-      </c>
-      <c r="W20" s="75">
-        <v>8</v>
-      </c>
-      <c r="X20" s="76">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="50"/>
-    </row>
-    <row r="21" spans="2:32" s="3" customFormat="1">
-      <c r="B21" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="141">
-        <v>0.18</v>
-      </c>
-      <c r="O21" s="141">
-        <v>0.22</v>
-      </c>
-      <c r="P21" s="141">
-        <v>0.13</v>
-      </c>
-      <c r="Q21" s="143">
-        <v>2.2701389703406346E-2</v>
-      </c>
-      <c r="R21" s="143">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="S21" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="U21" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="V21" s="90">
-        <v>0.05</v>
-      </c>
-      <c r="W21" s="91">
-        <v>0</v>
-      </c>
-      <c r="X21" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="50"/>
-    </row>
-    <row r="22" spans="2:32" s="3" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B22" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="168">
-        <v>8.0845377272727266</v>
-      </c>
-      <c r="O22" s="163">
-        <v>6.7088948787061993</v>
-      </c>
-      <c r="P22" s="163">
-        <v>2.8054184693877557</v>
-      </c>
-      <c r="Q22" s="163">
-        <v>5.3109741463414624</v>
-      </c>
-      <c r="R22" s="163">
-        <v>5.2</v>
-      </c>
-      <c r="S22" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="72">
-        <v>6</v>
-      </c>
-      <c r="U22" s="73">
-        <v>8</v>
-      </c>
-      <c r="V22" s="74">
-        <v>10</v>
-      </c>
-      <c r="W22" s="75">
-        <v>15</v>
-      </c>
-      <c r="X22" s="76">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="98">
-        <v>43983</v>
-      </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="50"/>
-    </row>
-    <row r="23" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B23" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="71">
-        <v>2</v>
-      </c>
-      <c r="T23" s="72">
-        <v>5</v>
-      </c>
-      <c r="U23" s="73">
-        <v>3</v>
-      </c>
-      <c r="V23" s="74">
-        <v>2</v>
-      </c>
-      <c r="W23" s="75">
-        <v>1</v>
-      </c>
-      <c r="X23" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="50"/>
-    </row>
-    <row r="24" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B24" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="135">
-        <v>298</v>
-      </c>
-      <c r="O24" s="135">
-        <v>485</v>
-      </c>
-      <c r="P24" s="135">
-        <v>795</v>
-      </c>
-      <c r="Q24" s="135">
-        <v>2056</v>
-      </c>
-      <c r="R24" s="135">
-        <v>2202</v>
-      </c>
-      <c r="S24" s="71">
-        <v>0</v>
-      </c>
-      <c r="T24" s="72">
-        <v>10</v>
-      </c>
-      <c r="U24" s="73">
-        <v>5</v>
-      </c>
-      <c r="V24" s="74">
-        <v>0</v>
-      </c>
-      <c r="W24" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="50"/>
-    </row>
-    <row r="25" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="50"/>
-    </row>
-    <row r="26" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B26" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="179"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="179"/>
-      <c r="W26" s="179"/>
-      <c r="X26" s="179"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="180"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="182"/>
-      <c r="AF26" s="183"/>
-    </row>
-    <row r="27" spans="2:32" s="3" customFormat="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="50"/>
-    </row>
-    <row r="28" spans="2:32" s="3" customFormat="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="50"/>
-    </row>
-    <row r="29" spans="2:32" s="3" customFormat="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="50"/>
-    </row>
-    <row r="30" spans="2:32" s="3" customFormat="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="50"/>
-    </row>
-    <row r="31" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B31" s="106"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="115"/>
-      <c r="AD31" s="115"/>
-      <c r="AE31" s="115"/>
-      <c r="AF31" s="116"/>
-    </row>
-    <row r="32" spans="2:32" ht="16.5" thickBot="1"/>
-    <row r="33" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="179"/>
-      <c r="T33" s="179"/>
-      <c r="U33" s="179"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="180"/>
-    </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="47"/>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="47"/>
-    </row>
-    <row r="36" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="173"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="47"/>
-    </row>
-    <row r="37" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
-      <c r="S37" s="179"/>
-      <c r="T37" s="179"/>
-      <c r="U37" s="179"/>
-      <c r="V37" s="179"/>
-      <c r="W37" s="179"/>
-      <c r="X37" s="179"/>
-      <c r="Y37" s="179"/>
-      <c r="Z37" s="180"/>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="B38" s="58"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="47"/>
-    </row>
-    <row r="39" spans="2:26">
-      <c r="B39" s="58"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="47"/>
-    </row>
-    <row r="40" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B40" s="106"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="113"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="E33:Z33"/>
-    <mergeCell ref="E37:Z37"/>
-    <mergeCell ref="E10:Z10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="E26:Z26"/>
-    <mergeCell ref="AB26:AF26"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -5407,6 +3882,1555 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB19F26-B787-43E2-B850-76D151E62E61}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="7.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="15.375" style="1" customWidth="1"/>
+    <col min="20" max="22" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="12.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="12.375" style="4" customWidth="1"/>
+    <col min="31" max="32" width="10.875" style="4"/>
+    <col min="33" max="33" width="10.875" style="3"/>
+    <col min="34" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="183">
+        <v>2019</v>
+      </c>
+      <c r="AF2" s="184"/>
+    </row>
+    <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
+      <c r="B6" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="193"/>
+    </row>
+    <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="1"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="2:32" s="3" customFormat="1" ht="18.75" thickBot="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="196" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="196" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="200" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="212" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="214" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="196" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="216" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="202" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="198" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="201"/>
+      <c r="S9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="211"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="199"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="206"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="207" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="208"/>
+      <c r="AD10" s="208"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="209"/>
+    </row>
+    <row r="11" spans="2:32" s="3" customFormat="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="36"/>
+    </row>
+    <row r="12" spans="2:32" s="3" customFormat="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="50"/>
+    </row>
+    <row r="13" spans="2:32" s="3" customFormat="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+    </row>
+    <row r="14" spans="2:32" s="3" customFormat="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="50"/>
+    </row>
+    <row r="15" spans="2:32" s="3" customFormat="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="50"/>
+    </row>
+    <row r="16" spans="2:32" s="3" customFormat="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="50"/>
+    </row>
+    <row r="17" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="50"/>
+    </row>
+    <row r="18" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="206"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="207" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="208"/>
+      <c r="AE18" s="208"/>
+      <c r="AF18" s="209"/>
+    </row>
+    <row r="19" spans="2:32" s="3" customFormat="1">
+      <c r="B19" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="135">
+        <v>108.20530523255815</v>
+      </c>
+      <c r="O19" s="135">
+        <v>83.92788879235448</v>
+      </c>
+      <c r="P19" s="135">
+        <v>73.514541088580572</v>
+      </c>
+      <c r="Q19" s="135">
+        <v>66.502703514568935</v>
+      </c>
+      <c r="R19" s="135">
+        <v>21</v>
+      </c>
+      <c r="S19" s="71">
+        <f>V19</f>
+        <v>6</v>
+      </c>
+      <c r="T19" s="72">
+        <v>15</v>
+      </c>
+      <c r="U19" s="73">
+        <v>10</v>
+      </c>
+      <c r="V19" s="74">
+        <v>6</v>
+      </c>
+      <c r="W19" s="75">
+        <v>5</v>
+      </c>
+      <c r="X19" s="76">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50"/>
+    </row>
+    <row r="20" spans="2:32" s="3" customFormat="1">
+      <c r="B20" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="172">
+        <v>7.4773609314359639</v>
+      </c>
+      <c r="O20" s="172">
+        <v>7.1895777178796045</v>
+      </c>
+      <c r="P20" s="163">
+        <v>19.133928571428573</v>
+      </c>
+      <c r="Q20" s="163">
+        <v>51.563752276867028</v>
+      </c>
+      <c r="R20" s="163">
+        <v>64</v>
+      </c>
+      <c r="S20" s="71">
+        <f>V20</f>
+        <v>12</v>
+      </c>
+      <c r="T20" s="72">
+        <v>18</v>
+      </c>
+      <c r="U20" s="73">
+        <v>15</v>
+      </c>
+      <c r="V20" s="74">
+        <v>12</v>
+      </c>
+      <c r="W20" s="75">
+        <v>8</v>
+      </c>
+      <c r="X20" s="76">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="50"/>
+    </row>
+    <row r="21" spans="2:32" s="3" customFormat="1">
+      <c r="B21" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="141">
+        <v>0.18</v>
+      </c>
+      <c r="O21" s="141">
+        <v>0.22</v>
+      </c>
+      <c r="P21" s="141">
+        <v>0.13</v>
+      </c>
+      <c r="Q21" s="143">
+        <v>2.2701389703406346E-2</v>
+      </c>
+      <c r="R21" s="143">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S21" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="U21" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="V21" s="90">
+        <v>0.05</v>
+      </c>
+      <c r="W21" s="91">
+        <v>0</v>
+      </c>
+      <c r="X21" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="50"/>
+    </row>
+    <row r="22" spans="2:32" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B22" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="168">
+        <v>8.0845377272727266</v>
+      </c>
+      <c r="O22" s="163">
+        <v>6.7088948787061993</v>
+      </c>
+      <c r="P22" s="163">
+        <v>2.8054184693877557</v>
+      </c>
+      <c r="Q22" s="163">
+        <v>5.3109741463414624</v>
+      </c>
+      <c r="R22" s="163">
+        <v>5.2</v>
+      </c>
+      <c r="S22" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="72">
+        <v>6</v>
+      </c>
+      <c r="U22" s="73">
+        <v>8</v>
+      </c>
+      <c r="V22" s="74">
+        <v>10</v>
+      </c>
+      <c r="W22" s="75">
+        <v>15</v>
+      </c>
+      <c r="X22" s="76">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="98">
+        <v>43983</v>
+      </c>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="50"/>
+    </row>
+    <row r="23" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="71">
+        <v>2</v>
+      </c>
+      <c r="T23" s="72">
+        <v>5</v>
+      </c>
+      <c r="U23" s="73">
+        <v>3</v>
+      </c>
+      <c r="V23" s="74">
+        <v>2</v>
+      </c>
+      <c r="W23" s="75">
+        <v>1</v>
+      </c>
+      <c r="X23" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="50"/>
+    </row>
+    <row r="24" spans="2:32" s="3" customFormat="1" ht="47.25">
+      <c r="B24" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="135">
+        <v>298</v>
+      </c>
+      <c r="O24" s="135">
+        <v>485</v>
+      </c>
+      <c r="P24" s="135">
+        <v>795</v>
+      </c>
+      <c r="Q24" s="135">
+        <v>2056</v>
+      </c>
+      <c r="R24" s="135">
+        <v>2202</v>
+      </c>
+      <c r="S24" s="71">
+        <v>0</v>
+      </c>
+      <c r="T24" s="72">
+        <v>10</v>
+      </c>
+      <c r="U24" s="73">
+        <v>5</v>
+      </c>
+      <c r="V24" s="74">
+        <v>0</v>
+      </c>
+      <c r="W24" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="50"/>
+    </row>
+    <row r="25" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="50"/>
+    </row>
+    <row r="26" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="207" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="208"/>
+      <c r="AD26" s="208"/>
+      <c r="AE26" s="208"/>
+      <c r="AF26" s="209"/>
+    </row>
+    <row r="27" spans="2:32" s="3" customFormat="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="50"/>
+    </row>
+    <row r="28" spans="2:32" s="3" customFormat="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="50"/>
+    </row>
+    <row r="29" spans="2:32" s="3" customFormat="1">
+      <c r="B29" s="58"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="50"/>
+    </row>
+    <row r="30" spans="2:32" s="3" customFormat="1">
+      <c r="B30" s="58"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="50"/>
+    </row>
+    <row r="31" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B31" s="106"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="115"/>
+      <c r="AF31" s="116"/>
+    </row>
+    <row r="32" spans="2:32" ht="16.5" thickBot="1"/>
+    <row r="33" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="205"/>
+      <c r="Q33" s="205"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="205"/>
+      <c r="W33" s="205"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="206"/>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="47"/>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="58"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="47"/>
+    </row>
+    <row r="36" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="173"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="47"/>
+    </row>
+    <row r="37" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="205"/>
+      <c r="R37" s="205"/>
+      <c r="S37" s="205"/>
+      <c r="T37" s="205"/>
+      <c r="U37" s="205"/>
+      <c r="V37" s="205"/>
+      <c r="W37" s="205"/>
+      <c r="X37" s="205"/>
+      <c r="Y37" s="205"/>
+      <c r="Z37" s="206"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="58"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="47"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="B39" s="58"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="47"/>
+    </row>
+    <row r="40" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B40" s="106"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="E33:Z33"/>
+    <mergeCell ref="E37:Z37"/>
+    <mergeCell ref="E10:Z10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="E26:Z26"/>
+    <mergeCell ref="AB26:AF26"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4195F7-3E1C-4375-B0FE-AE006E765103}">
   <sheetPr>
@@ -5414,7 +5438,7 @@
   </sheetPr>
   <dimension ref="B1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
@@ -5457,25 +5481,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5485,16 +5509,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="212"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="182"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="213">
+      <c r="AE2" s="183">
         <v>2019</v>
       </c>
-      <c r="AF2" s="214"/>
+      <c r="AF2" s="184"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -5532,25 +5556,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -5560,8 +5584,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="212"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="182"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -5600,41 +5624,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="199"/>
-      <c r="Y6" s="199"/>
-      <c r="Z6" s="200"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="201" t="s">
+      <c r="AB6" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="202"/>
-      <c r="AD6" s="202"/>
-      <c r="AE6" s="202"/>
-      <c r="AF6" s="203"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="193"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -5678,37 +5702,37 @@
       <c r="F8" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="190" t="s">
+      <c r="H8" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="190" t="s">
+      <c r="I8" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="190" t="s">
+      <c r="J8" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="190" t="s">
+      <c r="K8" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="190" t="s">
+      <c r="L8" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="190" t="s">
+      <c r="M8" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="190" t="s">
+      <c r="N8" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="190" t="s">
+      <c r="O8" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="190" t="s">
+      <c r="P8" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="206" t="s">
+      <c r="Q8" s="200" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="194" t="s">
@@ -5717,25 +5741,25 @@
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="184" t="s">
+      <c r="T8" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="186" t="s">
+      <c r="U8" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="188" t="s">
+      <c r="V8" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="190" t="s">
+      <c r="W8" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="192" t="s">
+      <c r="X8" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="176" t="s">
+      <c r="Y8" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="204" t="s">
+      <c r="Z8" s="198" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -5750,28 +5774,28 @@
       <c r="D9" s="11"/>
       <c r="E9" s="195"/>
       <c r="F9" s="195"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="207"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="201"/>
       <c r="R9" s="195"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="185"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="205"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="199"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -5799,36 +5823,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="180"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="206"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="181" t="s">
+      <c r="AB10" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="183"/>
+      <c r="AC10" s="208"/>
+      <c r="AD10" s="208"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="209"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="B11" s="21"/>
@@ -6067,36 +6091,36 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="180"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="206"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="181" t="s">
+      <c r="AB18" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="183"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="208"/>
+      <c r="AE18" s="208"/>
+      <c r="AF18" s="209"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
       <c r="B19" s="58" t="s">
@@ -6129,7 +6153,7 @@
       <c r="Q19" s="136">
         <v>10.893004115226338</v>
       </c>
-      <c r="R19" s="217">
+      <c r="R19" s="177">
         <v>10</v>
       </c>
       <c r="S19" s="71">
@@ -6187,10 +6211,10 @@
       <c r="P20" s="141">
         <v>0.13</v>
       </c>
-      <c r="Q20" s="216">
+      <c r="Q20" s="176">
         <v>3.408930423730052E-3</v>
       </c>
-      <c r="R20" s="216">
+      <c r="R20" s="176">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="S20" s="88" t="s">
@@ -6377,36 +6401,36 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="179"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="179"/>
-      <c r="T24" s="179"/>
-      <c r="U24" s="179"/>
-      <c r="V24" s="179"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="180"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="205"/>
+      <c r="W24" s="205"/>
+      <c r="X24" s="205"/>
+      <c r="Y24" s="205"/>
+      <c r="Z24" s="206"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="181" t="s">
+      <c r="AB24" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="AC24" s="182"/>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="182"/>
-      <c r="AF24" s="183"/>
+      <c r="AC24" s="208"/>
+      <c r="AD24" s="208"/>
+      <c r="AE24" s="208"/>
+      <c r="AF24" s="209"/>
     </row>
     <row r="25" spans="2:32" s="3" customFormat="1">
       <c r="B25" s="58"/>
@@ -6580,28 +6604,28 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="179"/>
-      <c r="Q31" s="179"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="179"/>
-      <c r="T31" s="179"/>
-      <c r="U31" s="179"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="179"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="179"/>
-      <c r="Z31" s="180"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="205"/>
+      <c r="N31" s="205"/>
+      <c r="O31" s="205"/>
+      <c r="P31" s="205"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="205"/>
+      <c r="V31" s="205"/>
+      <c r="W31" s="205"/>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="205"/>
+      <c r="Z31" s="206"/>
     </row>
     <row r="32" spans="2:32">
       <c r="B32" s="58"/>
@@ -6690,28 +6714,28 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="179"/>
-      <c r="R35" s="179"/>
-      <c r="S35" s="179"/>
-      <c r="T35" s="179"/>
-      <c r="U35" s="179"/>
-      <c r="V35" s="179"/>
-      <c r="W35" s="179"/>
-      <c r="X35" s="179"/>
-      <c r="Y35" s="179"/>
-      <c r="Z35" s="180"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="205"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="205"/>
+      <c r="O35" s="205"/>
+      <c r="P35" s="205"/>
+      <c r="Q35" s="205"/>
+      <c r="R35" s="205"/>
+      <c r="S35" s="205"/>
+      <c r="T35" s="205"/>
+      <c r="U35" s="205"/>
+      <c r="V35" s="205"/>
+      <c r="W35" s="205"/>
+      <c r="X35" s="205"/>
+      <c r="Y35" s="205"/>
+      <c r="Z35" s="206"/>
     </row>
     <row r="36" spans="2:26">
       <c r="B36" s="58"/>
@@ -6796,21 +6820,13 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="E31:Z31"/>
-    <mergeCell ref="E35:Z35"/>
-    <mergeCell ref="E10:Z10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="E24:Z24"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="E8:E9"/>
@@ -6827,13 +6843,21 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="E31:Z31"/>
+    <mergeCell ref="E35:Z35"/>
+    <mergeCell ref="E10:Z10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="E24:Z24"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6841,6 +6865,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004243F17B37D36F4AA4A9B4625AA51EE8" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8fabe441ec9bfc9d2c5f4852b45d7d5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50d053a393dfa1f7de5a69862ad415fa" ns2:_="">
     <xsd:import namespace="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
@@ -6998,22 +7037,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECAD675-D530-4568-B4D1-4E32562BA850}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A69DD-9AD8-46BC-BCEB-6F14859909F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{615C56FF-D0BC-4C97-8DF6-53138E3DE5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7029,28 +7077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A69DD-9AD8-46BC-BCEB-6F14859909F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECAD675-D530-4568-B4D1-4E32562BA850}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
+++ b/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://steelgo0-my.sharepoint.com/personal/jose_castillo_steelgo_com/Documents/Escritorio/LibroNegro/1. BlackBook Operaciones/2 BlackBook BackEnd080121/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{688B1C6A-4DB7-4277-8B16-F726956A2DF7}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C927192-718A-424B-BC26-7F702C028ECC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{718BEB3B-7B62-444F-9197-0D41EC0A9ADA}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1517,9 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,77 +1760,8 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1877,13 +1805,91 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,7 +2222,7 @@
   <dimension ref="B1:AG42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
@@ -2248,25 +2254,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -2276,16 +2282,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="214"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="183">
+      <c r="AE2" s="215">
         <v>2019</v>
       </c>
-      <c r="AF2" s="184"/>
+      <c r="AF2" s="216"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -2323,25 +2329,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -2351,8 +2357,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="182"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="214"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -2391,41 +2397,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="190"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="202"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="191" t="s">
+      <c r="AB6" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="192"/>
-      <c r="AF6" s="193"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="205"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -2463,70 +2469,70 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="194" t="s">
+      <c r="E8" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="194" t="s">
+      <c r="F8" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="196" t="s">
+      <c r="G8" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="196" t="s">
+      <c r="H8" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="196" t="s">
+      <c r="I8" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="196" t="s">
+      <c r="J8" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="196" t="s">
+      <c r="K8" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="196" t="s">
+      <c r="L8" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="196" t="s">
+      <c r="M8" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="196" t="s">
+      <c r="N8" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="196" t="s">
+      <c r="O8" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="196" t="s">
+      <c r="P8" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="200" t="s">
+      <c r="Q8" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194" t="s">
+      <c r="R8" s="196" t="s">
         <v>95</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="210" t="s">
+      <c r="T8" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="212" t="s">
+      <c r="U8" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="214" t="s">
+      <c r="V8" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="196" t="s">
+      <c r="W8" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="216" t="s">
+      <c r="X8" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="202" t="s">
+      <c r="Y8" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="198" t="s">
+      <c r="Z8" s="206" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -2539,30 +2545,30 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="195"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="197"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="211"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="199"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="207"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -2590,36 +2596,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="206"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="182"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="207" t="s">
+      <c r="AB10" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="209"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="185"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1">
       <c r="B11" s="21"/>
@@ -2671,7 +2677,7 @@
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="41"/>
-      <c r="R12" s="105"/>
+      <c r="R12" s="104"/>
       <c r="S12" s="42"/>
       <c r="T12" s="43"/>
       <c r="U12" s="44"/>
@@ -2704,7 +2710,7 @@
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="41"/>
-      <c r="R13" s="105"/>
+      <c r="R13" s="104"/>
       <c r="S13" s="42"/>
       <c r="T13" s="43"/>
       <c r="U13" s="44"/>
@@ -2737,7 +2743,7 @@
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="41"/>
-      <c r="R14" s="105"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="42"/>
       <c r="T14" s="43"/>
       <c r="U14" s="44"/>
@@ -2836,7 +2842,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="173"/>
+      <c r="R17" s="172"/>
       <c r="S17" s="42"/>
       <c r="T17" s="64"/>
       <c r="U17" s="65"/>
@@ -2858,85 +2864,85 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="206"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="182"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="207" t="s">
+      <c r="AB18" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="208"/>
-      <c r="AF18" s="209"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="185"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="163">
+      <c r="E19" s="128"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="162">
         <v>38.161707632600262</v>
       </c>
-      <c r="O19" s="163">
+      <c r="O19" s="162">
         <v>36.120736086175945</v>
       </c>
-      <c r="P19" s="163">
+      <c r="P19" s="162">
         <v>43.059873949579831</v>
       </c>
-      <c r="Q19" s="163">
+      <c r="Q19" s="162">
         <v>74.806099226217569</v>
       </c>
-      <c r="R19" s="163">
+      <c r="R19" s="162">
         <v>75</v>
       </c>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135">
+      <c r="S19" s="133"/>
+      <c r="T19" s="134">
         <v>30</v>
       </c>
-      <c r="U19" s="136">
+      <c r="U19" s="135">
         <v>24</v>
       </c>
-      <c r="V19" s="137">
+      <c r="V19" s="136">
         <v>18</v>
       </c>
-      <c r="W19" s="138">
+      <c r="W19" s="137">
         <v>16</v>
       </c>
-      <c r="X19" s="139">
+      <c r="X19" s="138">
         <v>14</v>
       </c>
       <c r="Y19" s="46"/>
@@ -2949,55 +2955,55 @@
       <c r="AF19" s="50"/>
     </row>
     <row r="20" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="135">
+      <c r="E20" s="128"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="134">
         <v>1138</v>
       </c>
-      <c r="O20" s="135">
+      <c r="O20" s="134">
         <v>1482</v>
       </c>
-      <c r="P20" s="135">
+      <c r="P20" s="134">
         <v>1238</v>
       </c>
-      <c r="Q20" s="135">
+      <c r="Q20" s="134">
         <v>2059</v>
       </c>
-      <c r="R20" s="135">
+      <c r="R20" s="134">
         <v>2218</v>
       </c>
-      <c r="S20" s="134">
+      <c r="S20" s="133">
         <v>0</v>
       </c>
-      <c r="T20" s="135">
+      <c r="T20" s="134">
         <v>10</v>
       </c>
-      <c r="U20" s="136">
+      <c r="U20" s="135">
         <v>5</v>
       </c>
-      <c r="V20" s="137">
+      <c r="V20" s="136">
         <v>0</v>
       </c>
-      <c r="W20" s="138" t="s">
+      <c r="W20" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="X20" s="139" t="s">
+      <c r="X20" s="138" t="s">
         <v>46</v>
       </c>
       <c r="Y20" s="46"/>
@@ -3010,55 +3016,55 @@
       <c r="AF20" s="50"/>
     </row>
     <row r="21" spans="2:32" s="3" customFormat="1">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="141">
+      <c r="E21" s="128"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="140">
         <v>0.296875</v>
       </c>
-      <c r="O21" s="141">
+      <c r="O21" s="140">
         <v>0.14491978609625669</v>
       </c>
-      <c r="P21" s="141">
+      <c r="P21" s="140">
         <v>0.12654320987654322</v>
       </c>
-      <c r="Q21" s="143">
+      <c r="Q21" s="142">
         <v>5.1847437425506557E-2</v>
       </c>
-      <c r="R21" s="141">
+      <c r="R21" s="140">
         <v>0.17730000000000001</v>
       </c>
-      <c r="S21" s="140" t="s">
+      <c r="S21" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="141">
+      <c r="T21" s="140">
         <v>0.15</v>
       </c>
-      <c r="U21" s="142">
+      <c r="U21" s="141">
         <v>0.1</v>
       </c>
-      <c r="V21" s="143">
+      <c r="V21" s="142">
         <v>0.05</v>
       </c>
-      <c r="W21" s="144">
+      <c r="W21" s="143">
         <v>0</v>
       </c>
-      <c r="X21" s="145" t="s">
+      <c r="X21" s="144" t="s">
         <v>46</v>
       </c>
       <c r="Y21" s="46"/>
@@ -3071,45 +3077,45 @@
       <c r="AF21" s="50"/>
     </row>
     <row r="22" spans="2:32" s="3" customFormat="1">
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="140">
+      <c r="E22" s="128"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="139">
         <v>0</v>
       </c>
-      <c r="T22" s="135" t="s">
+      <c r="T22" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="136">
+      <c r="U22" s="135">
         <v>2</v>
       </c>
-      <c r="V22" s="137">
+      <c r="V22" s="136">
         <v>0</v>
       </c>
-      <c r="W22" s="138" t="s">
+      <c r="W22" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="X22" s="139" t="s">
+      <c r="X22" s="138" t="s">
         <v>46</v>
       </c>
       <c r="Y22" s="46"/>
@@ -3122,35 +3128,35 @@
       <c r="AF22" s="50"/>
     </row>
     <row r="23" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="139" t="s">
+      <c r="E23" s="128"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="138" t="s">
         <v>67</v>
       </c>
       <c r="Y23" s="46"/>
@@ -3163,35 +3169,35 @@
       <c r="AF23" s="50"/>
     </row>
     <row r="24" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="136"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="139" t="s">
+      <c r="E24" s="128"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="138" t="s">
         <v>67</v>
       </c>
       <c r="Y24" s="46"/>
@@ -3204,55 +3210,55 @@
       <c r="AF24" s="50"/>
     </row>
     <row r="25" spans="2:32" s="3" customFormat="1">
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="147" t="s">
+      <c r="D25" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="218" t="s">
+      <c r="E25" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="168">
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="167">
         <v>8.0845377272727266</v>
       </c>
-      <c r="O25" s="163">
+      <c r="O25" s="162">
         <v>6.7088948787061993</v>
       </c>
-      <c r="P25" s="163">
+      <c r="P25" s="162">
         <v>2.8054184693877557</v>
       </c>
-      <c r="Q25" s="163">
+      <c r="Q25" s="162">
         <v>5.3109741463414624</v>
       </c>
-      <c r="R25" s="163">
+      <c r="R25" s="162">
         <v>5.2801900000000002</v>
       </c>
-      <c r="S25" s="134"/>
-      <c r="T25" s="135">
+      <c r="S25" s="133"/>
+      <c r="T25" s="134">
         <v>6</v>
       </c>
-      <c r="U25" s="136">
+      <c r="U25" s="135">
         <v>8</v>
       </c>
-      <c r="V25" s="137">
+      <c r="V25" s="136">
         <v>10</v>
       </c>
-      <c r="W25" s="138">
+      <c r="W25" s="137">
         <v>15</v>
       </c>
-      <c r="X25" s="139">
+      <c r="X25" s="138">
         <v>20</v>
       </c>
       <c r="Y25" s="46"/>
@@ -3265,33 +3271,33 @@
       <c r="AF25" s="50"/>
     </row>
     <row r="26" spans="2:32" s="3" customFormat="1" ht="31.5">
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133" t="s">
+      <c r="C26" s="131"/>
+      <c r="D26" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="136"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="139"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="138"/>
       <c r="Y26" s="46"/>
       <c r="Z26" s="47"/>
       <c r="AA26" s="1"/>
@@ -3302,51 +3308,51 @@
       <c r="AF26" s="50"/>
     </row>
     <row r="27" spans="2:32" s="3" customFormat="1" ht="32.25" thickBot="1">
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="159">
+      <c r="E27" s="128"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="158">
         <v>0.59314359637774905</v>
       </c>
-      <c r="O27" s="159">
+      <c r="O27" s="158">
         <v>0.73000898472596587</v>
       </c>
-      <c r="P27" s="159">
+      <c r="P27" s="158">
         <v>0.41439075630252103</v>
       </c>
-      <c r="Q27" s="159">
+      <c r="Q27" s="158">
         <v>3.0965391621129327E-2</v>
       </c>
-      <c r="R27" s="159">
+      <c r="R27" s="158">
         <v>0.21243042671614101</v>
       </c>
-      <c r="S27" s="134"/>
-      <c r="T27" s="159" t="s">
+      <c r="S27" s="133"/>
+      <c r="T27" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="U27" s="160">
+      <c r="U27" s="159">
         <v>0.9</v>
       </c>
-      <c r="V27" s="158">
+      <c r="V27" s="157">
         <v>0.95</v>
       </c>
-      <c r="W27" s="161">
+      <c r="W27" s="160">
         <v>0.98</v>
       </c>
-      <c r="X27" s="162">
+      <c r="X27" s="161">
         <v>1</v>
       </c>
       <c r="Y27" s="46"/>
@@ -3364,41 +3370,41 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="206"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="182"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="207" t="s">
+      <c r="AB28" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="208"/>
-      <c r="AF28" s="209"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="185"/>
     </row>
     <row r="29" spans="2:32" s="3" customFormat="1">
       <c r="B29" s="58"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="104"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="52"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
@@ -3413,7 +3419,7 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="28"/>
-      <c r="S29" s="105"/>
+      <c r="S29" s="104"/>
       <c r="T29" s="29"/>
       <c r="U29" s="30"/>
       <c r="V29" s="30"/>
@@ -3431,7 +3437,7 @@
     <row r="30" spans="2:32" s="3" customFormat="1">
       <c r="B30" s="58"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="104"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="52"/>
       <c r="F30" s="54"/>
       <c r="G30" s="55"/>
@@ -3446,7 +3452,7 @@
       <c r="P30" s="55"/>
       <c r="Q30" s="56"/>
       <c r="R30" s="46"/>
-      <c r="S30" s="105"/>
+      <c r="S30" s="104"/>
       <c r="T30" s="53"/>
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
@@ -3528,37 +3534,37 @@
       <c r="AF32" s="50"/>
     </row>
     <row r="33" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B33" s="106"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="113"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="112"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="116"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="115"/>
     </row>
     <row r="34" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B34" s="1"/>
@@ -3598,69 +3604,69 @@
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="205"/>
-      <c r="O35" s="205"/>
-      <c r="P35" s="205"/>
-      <c r="Q35" s="205"/>
-      <c r="R35" s="205"/>
-      <c r="S35" s="205"/>
-      <c r="T35" s="205"/>
-      <c r="U35" s="205"/>
-      <c r="V35" s="205"/>
-      <c r="W35" s="205"/>
-      <c r="X35" s="205"/>
-      <c r="Y35" s="205"/>
-      <c r="Z35" s="206"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="181"/>
+      <c r="S35" s="181"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
+      <c r="X35" s="181"/>
+      <c r="Y35" s="181"/>
+      <c r="Z35" s="182"/>
     </row>
     <row r="36" spans="2:32" s="3" customFormat="1">
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="147" t="s">
+      <c r="D36" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="129"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="150"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="140">
+      <c r="E36" s="128"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="139">
         <v>0</v>
       </c>
-      <c r="T36" s="135" t="s">
+      <c r="T36" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="136">
+      <c r="U36" s="135">
         <v>2</v>
       </c>
-      <c r="V36" s="137">
+      <c r="V36" s="136">
         <v>0</v>
       </c>
-      <c r="W36" s="138" t="s">
+      <c r="W36" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="X36" s="139" t="s">
+      <c r="X36" s="138" t="s">
         <v>46</v>
       </c>
       <c r="Y36" s="46"/>
@@ -3716,7 +3722,7 @@
       <c r="O38" s="62"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="63"/>
-      <c r="R38" s="173"/>
+      <c r="R38" s="172"/>
       <c r="S38" s="46"/>
       <c r="T38" s="64"/>
       <c r="U38" s="65"/>
@@ -3732,28 +3738,28 @@
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="205"/>
-      <c r="R39" s="205"/>
-      <c r="S39" s="205"/>
-      <c r="T39" s="205"/>
-      <c r="U39" s="205"/>
-      <c r="V39" s="205"/>
-      <c r="W39" s="205"/>
-      <c r="X39" s="205"/>
-      <c r="Y39" s="205"/>
-      <c r="Z39" s="206"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="181"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="182"/>
     </row>
     <row r="40" spans="2:32">
       <c r="B40" s="58"/>
@@ -3773,7 +3779,7 @@
       <c r="P40" s="26"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="28"/>
-      <c r="S40" s="105"/>
+      <c r="S40" s="104"/>
       <c r="T40" s="29"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -3810,34 +3816,57 @@
       <c r="Z41" s="47"/>
     </row>
     <row r="42" spans="2:32" ht="16.5" thickBot="1">
-      <c r="B42" s="106"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="109"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="112"/>
-      <c r="V42" s="112"/>
-      <c r="W42" s="112"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="113"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="112"/>
+      <c r="Y42" s="110"/>
+      <c r="Z42" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="E35:Z35"/>
     <mergeCell ref="E39:Z39"/>
@@ -3847,6 +3876,1532 @@
     <mergeCell ref="AB18:AF18"/>
     <mergeCell ref="E28:Z28"/>
     <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB19F26-B787-43E2-B850-76D151E62E61}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="7.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="15.375" style="1" customWidth="1"/>
+    <col min="20" max="22" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="12.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="12.375" style="4" customWidth="1"/>
+    <col min="31" max="32" width="10.875" style="4"/>
+    <col min="33" max="33" width="10.875" style="3"/>
+    <col min="34" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="215">
+        <v>2019</v>
+      </c>
+      <c r="AF2" s="216"/>
+    </row>
+    <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="214"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
+      <c r="B6" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="202"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="203" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="205"/>
+    </row>
+    <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="1"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="2:32" s="3" customFormat="1" ht="18.75" thickBot="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="192" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="192" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="192" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="192" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="208" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="208" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="186" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="206" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="187"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="185"/>
+    </row>
+    <row r="11" spans="2:32" s="3" customFormat="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="36"/>
+    </row>
+    <row r="12" spans="2:32" s="3" customFormat="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="50"/>
+    </row>
+    <row r="13" spans="2:32" s="3" customFormat="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+    </row>
+    <row r="14" spans="2:32" s="3" customFormat="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="50"/>
+    </row>
+    <row r="15" spans="2:32" s="3" customFormat="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="50"/>
+    </row>
+    <row r="16" spans="2:32" s="3" customFormat="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="50"/>
+    </row>
+    <row r="17" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="50"/>
+    </row>
+    <row r="18" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="185"/>
+    </row>
+    <row r="19" spans="2:32" s="3" customFormat="1">
+      <c r="B19" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="134">
+        <v>108.20530523255815</v>
+      </c>
+      <c r="O19" s="134">
+        <v>83.92788879235448</v>
+      </c>
+      <c r="P19" s="134">
+        <v>73.514541088580572</v>
+      </c>
+      <c r="Q19" s="134">
+        <v>66.502703514568935</v>
+      </c>
+      <c r="R19" s="134">
+        <v>21</v>
+      </c>
+      <c r="S19" s="71">
+        <f>V19</f>
+        <v>6</v>
+      </c>
+      <c r="T19" s="72">
+        <v>15</v>
+      </c>
+      <c r="U19" s="73">
+        <v>10</v>
+      </c>
+      <c r="V19" s="74">
+        <v>6</v>
+      </c>
+      <c r="W19" s="75">
+        <v>5</v>
+      </c>
+      <c r="X19" s="76">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50"/>
+    </row>
+    <row r="20" spans="2:32" s="3" customFormat="1">
+      <c r="B20" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="171">
+        <v>7.4773609314359639</v>
+      </c>
+      <c r="O20" s="171">
+        <v>7.1895777178796045</v>
+      </c>
+      <c r="P20" s="162">
+        <v>19.133928571428573</v>
+      </c>
+      <c r="Q20" s="162">
+        <v>51.563752276867028</v>
+      </c>
+      <c r="R20" s="162">
+        <v>64</v>
+      </c>
+      <c r="S20" s="71">
+        <f>V20</f>
+        <v>12</v>
+      </c>
+      <c r="T20" s="72">
+        <v>18</v>
+      </c>
+      <c r="U20" s="73">
+        <v>15</v>
+      </c>
+      <c r="V20" s="74">
+        <v>12</v>
+      </c>
+      <c r="W20" s="75">
+        <v>8</v>
+      </c>
+      <c r="X20" s="76">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="50"/>
+    </row>
+    <row r="21" spans="2:32" s="3" customFormat="1">
+      <c r="B21" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="218" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="140">
+        <v>0.18</v>
+      </c>
+      <c r="O21" s="140">
+        <v>0.22</v>
+      </c>
+      <c r="P21" s="140">
+        <v>0.13</v>
+      </c>
+      <c r="Q21" s="142">
+        <v>2.2701389703406346E-2</v>
+      </c>
+      <c r="R21" s="142">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S21" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="U21" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="V21" s="90">
+        <v>0.05</v>
+      </c>
+      <c r="W21" s="91">
+        <v>0</v>
+      </c>
+      <c r="X21" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="50"/>
+    </row>
+    <row r="22" spans="2:32" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B22" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="219" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="167">
+        <v>8.0845377272727266</v>
+      </c>
+      <c r="O22" s="162">
+        <v>6.7088948787061993</v>
+      </c>
+      <c r="P22" s="162">
+        <v>2.8054184693877557</v>
+      </c>
+      <c r="Q22" s="162">
+        <v>5.3109741463414624</v>
+      </c>
+      <c r="R22" s="162">
+        <v>5.2</v>
+      </c>
+      <c r="S22" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="72">
+        <v>6</v>
+      </c>
+      <c r="U22" s="73">
+        <v>8</v>
+      </c>
+      <c r="V22" s="74">
+        <v>10</v>
+      </c>
+      <c r="W22" s="75">
+        <v>15</v>
+      </c>
+      <c r="X22" s="76">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="97">
+        <v>43983</v>
+      </c>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="50"/>
+    </row>
+    <row r="23" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="220" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="71">
+        <v>2</v>
+      </c>
+      <c r="T23" s="72">
+        <v>5</v>
+      </c>
+      <c r="U23" s="73">
+        <v>3</v>
+      </c>
+      <c r="V23" s="74">
+        <v>2</v>
+      </c>
+      <c r="W23" s="75">
+        <v>1</v>
+      </c>
+      <c r="X23" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="50"/>
+    </row>
+    <row r="24" spans="2:32" s="3" customFormat="1" ht="47.25">
+      <c r="B24" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="134">
+        <v>298</v>
+      </c>
+      <c r="O24" s="134">
+        <v>485</v>
+      </c>
+      <c r="P24" s="134">
+        <v>795</v>
+      </c>
+      <c r="Q24" s="134">
+        <v>2056</v>
+      </c>
+      <c r="R24" s="134">
+        <v>2202</v>
+      </c>
+      <c r="S24" s="71">
+        <v>0</v>
+      </c>
+      <c r="T24" s="72">
+        <v>10</v>
+      </c>
+      <c r="U24" s="73">
+        <v>5</v>
+      </c>
+      <c r="V24" s="74">
+        <v>0</v>
+      </c>
+      <c r="W24" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="50"/>
+    </row>
+    <row r="25" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="50"/>
+    </row>
+    <row r="26" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="B26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="181"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="181"/>
+      <c r="Z26" s="182"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="185"/>
+    </row>
+    <row r="27" spans="2:32" s="3" customFormat="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="50"/>
+    </row>
+    <row r="28" spans="2:32" s="3" customFormat="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="50"/>
+    </row>
+    <row r="29" spans="2:32" s="3" customFormat="1">
+      <c r="B29" s="58"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="50"/>
+    </row>
+    <row r="30" spans="2:32" s="3" customFormat="1">
+      <c r="B30" s="58"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="50"/>
+    </row>
+    <row r="31" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B31" s="105"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="115"/>
+    </row>
+    <row r="32" spans="2:32" ht="16.5" thickBot="1"/>
+    <row r="33" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="182"/>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="47"/>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="58"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="47"/>
+    </row>
+    <row r="36" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="172"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="47"/>
+    </row>
+    <row r="37" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="181"/>
+      <c r="V37" s="181"/>
+      <c r="W37" s="181"/>
+      <c r="X37" s="181"/>
+      <c r="Y37" s="181"/>
+      <c r="Z37" s="182"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="58"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="47"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="B39" s="58"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="47"/>
+    </row>
+    <row r="40" spans="2:26" ht="16.5" thickBot="1">
+      <c r="B40" s="105"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="110"/>
+      <c r="T40" s="106"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="110"/>
+      <c r="Z40" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="E33:Z33"/>
+    <mergeCell ref="E37:Z37"/>
+    <mergeCell ref="E10:Z10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="E26:Z26"/>
+    <mergeCell ref="AB26:AF26"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -3882,1555 +5437,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB19F26-B787-43E2-B850-76D151E62E61}">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B1:AG40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="7.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="15.375" style="1" customWidth="1"/>
-    <col min="20" max="22" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="13.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="26" width="12.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="12.375" style="4" customWidth="1"/>
-    <col min="31" max="32" width="10.875" style="4"/>
-    <col min="33" max="33" width="10.875" style="3"/>
-    <col min="34" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:32" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="183">
-        <v>2019</v>
-      </c>
-      <c r="AF2" s="184"/>
-    </row>
-    <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="178" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="191" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="192"/>
-      <c r="AF6" s="193"/>
-    </row>
-    <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="1"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="18.75" thickBot="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="194" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="194" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="196" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="196" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="196" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="196" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="196" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="196" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="196" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="200" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="210" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="212" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="214" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="216" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="198" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA8" s="1"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="211"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="199"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="206"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="207" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="209"/>
-    </row>
-    <row r="11" spans="2:32" s="3" customFormat="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="36"/>
-    </row>
-    <row r="12" spans="2:32" s="3" customFormat="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-    </row>
-    <row r="13" spans="2:32" s="3" customFormat="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="50"/>
-    </row>
-    <row r="14" spans="2:32" s="3" customFormat="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-    </row>
-    <row r="15" spans="2:32" s="3" customFormat="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="50"/>
-    </row>
-    <row r="16" spans="2:32" s="3" customFormat="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="50"/>
-    </row>
-    <row r="17" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="50"/>
-    </row>
-    <row r="18" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="207" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="208"/>
-      <c r="AF18" s="209"/>
-    </row>
-    <row r="19" spans="2:32" s="3" customFormat="1">
-      <c r="B19" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="135">
-        <v>108.20530523255815</v>
-      </c>
-      <c r="O19" s="135">
-        <v>83.92788879235448</v>
-      </c>
-      <c r="P19" s="135">
-        <v>73.514541088580572</v>
-      </c>
-      <c r="Q19" s="135">
-        <v>66.502703514568935</v>
-      </c>
-      <c r="R19" s="135">
-        <v>21</v>
-      </c>
-      <c r="S19" s="71">
-        <f>V19</f>
-        <v>6</v>
-      </c>
-      <c r="T19" s="72">
-        <v>15</v>
-      </c>
-      <c r="U19" s="73">
-        <v>10</v>
-      </c>
-      <c r="V19" s="74">
-        <v>6</v>
-      </c>
-      <c r="W19" s="75">
-        <v>5</v>
-      </c>
-      <c r="X19" s="76">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="50"/>
-    </row>
-    <row r="20" spans="2:32" s="3" customFormat="1">
-      <c r="B20" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="172">
-        <v>7.4773609314359639</v>
-      </c>
-      <c r="O20" s="172">
-        <v>7.1895777178796045</v>
-      </c>
-      <c r="P20" s="163">
-        <v>19.133928571428573</v>
-      </c>
-      <c r="Q20" s="163">
-        <v>51.563752276867028</v>
-      </c>
-      <c r="R20" s="163">
-        <v>64</v>
-      </c>
-      <c r="S20" s="71">
-        <f>V20</f>
-        <v>12</v>
-      </c>
-      <c r="T20" s="72">
-        <v>18</v>
-      </c>
-      <c r="U20" s="73">
-        <v>15</v>
-      </c>
-      <c r="V20" s="74">
-        <v>12</v>
-      </c>
-      <c r="W20" s="75">
-        <v>8</v>
-      </c>
-      <c r="X20" s="76">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="50"/>
-    </row>
-    <row r="21" spans="2:32" s="3" customFormat="1">
-      <c r="B21" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="141">
-        <v>0.18</v>
-      </c>
-      <c r="O21" s="141">
-        <v>0.22</v>
-      </c>
-      <c r="P21" s="141">
-        <v>0.13</v>
-      </c>
-      <c r="Q21" s="143">
-        <v>2.2701389703406346E-2</v>
-      </c>
-      <c r="R21" s="143">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="S21" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="U21" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="V21" s="90">
-        <v>0.05</v>
-      </c>
-      <c r="W21" s="91">
-        <v>0</v>
-      </c>
-      <c r="X21" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="50"/>
-    </row>
-    <row r="22" spans="2:32" s="3" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B22" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="168">
-        <v>8.0845377272727266</v>
-      </c>
-      <c r="O22" s="163">
-        <v>6.7088948787061993</v>
-      </c>
-      <c r="P22" s="163">
-        <v>2.8054184693877557</v>
-      </c>
-      <c r="Q22" s="163">
-        <v>5.3109741463414624</v>
-      </c>
-      <c r="R22" s="163">
-        <v>5.2</v>
-      </c>
-      <c r="S22" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="72">
-        <v>6</v>
-      </c>
-      <c r="U22" s="73">
-        <v>8</v>
-      </c>
-      <c r="V22" s="74">
-        <v>10</v>
-      </c>
-      <c r="W22" s="75">
-        <v>15</v>
-      </c>
-      <c r="X22" s="76">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="98">
-        <v>43983</v>
-      </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="50"/>
-    </row>
-    <row r="23" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B23" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="71">
-        <v>2</v>
-      </c>
-      <c r="T23" s="72">
-        <v>5</v>
-      </c>
-      <c r="U23" s="73">
-        <v>3</v>
-      </c>
-      <c r="V23" s="74">
-        <v>2</v>
-      </c>
-      <c r="W23" s="75">
-        <v>1</v>
-      </c>
-      <c r="X23" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="50"/>
-    </row>
-    <row r="24" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B24" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="135">
-        <v>298</v>
-      </c>
-      <c r="O24" s="135">
-        <v>485</v>
-      </c>
-      <c r="P24" s="135">
-        <v>795</v>
-      </c>
-      <c r="Q24" s="135">
-        <v>2056</v>
-      </c>
-      <c r="R24" s="135">
-        <v>2202</v>
-      </c>
-      <c r="S24" s="71">
-        <v>0</v>
-      </c>
-      <c r="T24" s="72">
-        <v>10</v>
-      </c>
-      <c r="U24" s="73">
-        <v>5</v>
-      </c>
-      <c r="V24" s="74">
-        <v>0</v>
-      </c>
-      <c r="W24" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="50"/>
-    </row>
-    <row r="25" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="50"/>
-    </row>
-    <row r="26" spans="2:32" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="B26" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="205"/>
-      <c r="U26" s="205"/>
-      <c r="V26" s="205"/>
-      <c r="W26" s="205"/>
-      <c r="X26" s="205"/>
-      <c r="Y26" s="205"/>
-      <c r="Z26" s="206"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="207" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="208"/>
-      <c r="AE26" s="208"/>
-      <c r="AF26" s="209"/>
-    </row>
-    <row r="27" spans="2:32" s="3" customFormat="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="50"/>
-    </row>
-    <row r="28" spans="2:32" s="3" customFormat="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="50"/>
-    </row>
-    <row r="29" spans="2:32" s="3" customFormat="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="50"/>
-    </row>
-    <row r="30" spans="2:32" s="3" customFormat="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="50"/>
-    </row>
-    <row r="31" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B31" s="106"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="115"/>
-      <c r="AD31" s="115"/>
-      <c r="AE31" s="115"/>
-      <c r="AF31" s="116"/>
-    </row>
-    <row r="32" spans="2:32" ht="16.5" thickBot="1"/>
-    <row r="33" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="205"/>
-      <c r="Q33" s="205"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="205"/>
-      <c r="T33" s="205"/>
-      <c r="U33" s="205"/>
-      <c r="V33" s="205"/>
-      <c r="W33" s="205"/>
-      <c r="X33" s="205"/>
-      <c r="Y33" s="205"/>
-      <c r="Z33" s="206"/>
-    </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="47"/>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="47"/>
-    </row>
-    <row r="36" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="173"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="47"/>
-    </row>
-    <row r="37" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="205"/>
-      <c r="Q37" s="205"/>
-      <c r="R37" s="205"/>
-      <c r="S37" s="205"/>
-      <c r="T37" s="205"/>
-      <c r="U37" s="205"/>
-      <c r="V37" s="205"/>
-      <c r="W37" s="205"/>
-      <c r="X37" s="205"/>
-      <c r="Y37" s="205"/>
-      <c r="Z37" s="206"/>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="B38" s="58"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="47"/>
-    </row>
-    <row r="39" spans="2:26">
-      <c r="B39" s="58"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="47"/>
-    </row>
-    <row r="40" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B40" s="106"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="113"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="E33:Z33"/>
-    <mergeCell ref="E37:Z37"/>
-    <mergeCell ref="E10:Z10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="E26:Z26"/>
-    <mergeCell ref="AB26:AF26"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="R8:R9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4195F7-3E1C-4375-B0FE-AE006E765103}">
   <sheetPr>
@@ -5441,7 +5447,7 @@
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -5481,25 +5487,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5509,16 +5515,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="214"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="183">
+      <c r="AE2" s="215">
         <v>2019</v>
       </c>
-      <c r="AF2" s="184"/>
+      <c r="AF2" s="216"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -5556,25 +5562,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -5584,8 +5590,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="182"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="214"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -5624,41 +5630,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="190"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="202"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="191" t="s">
+      <c r="AB6" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="192"/>
-      <c r="AF6" s="193"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="205"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -5696,70 +5702,70 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="194" t="s">
+      <c r="E8" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="194" t="s">
+      <c r="F8" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="196" t="s">
+      <c r="G8" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="196" t="s">
+      <c r="H8" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="196" t="s">
+      <c r="I8" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="196" t="s">
+      <c r="J8" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="196" t="s">
+      <c r="K8" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="196" t="s">
+      <c r="L8" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="196" t="s">
+      <c r="M8" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="196" t="s">
+      <c r="N8" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="196" t="s">
+      <c r="O8" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="196" t="s">
+      <c r="P8" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="200" t="s">
+      <c r="Q8" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194" t="s">
+      <c r="R8" s="196" t="s">
         <v>95</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="210" t="s">
+      <c r="T8" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="212" t="s">
+      <c r="U8" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="214" t="s">
+      <c r="V8" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="196" t="s">
+      <c r="W8" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="216" t="s">
+      <c r="X8" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="202" t="s">
+      <c r="Y8" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="198" t="s">
+      <c r="Z8" s="206" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -5772,30 +5778,30 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="195"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="197"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="211"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="199"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="207"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -5823,36 +5829,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="206"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="182"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="207" t="s">
+      <c r="AB10" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="209"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="185"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="B11" s="21"/>
@@ -5904,7 +5910,7 @@
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="41"/>
-      <c r="R12" s="105"/>
+      <c r="R12" s="104"/>
       <c r="S12" s="42"/>
       <c r="T12" s="43"/>
       <c r="U12" s="44"/>
@@ -5937,7 +5943,7 @@
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="41"/>
-      <c r="R13" s="105"/>
+      <c r="R13" s="104"/>
       <c r="S13" s="42"/>
       <c r="T13" s="43"/>
       <c r="U13" s="44"/>
@@ -5970,7 +5976,7 @@
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="41"/>
-      <c r="R14" s="105"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="42"/>
       <c r="T14" s="43"/>
       <c r="U14" s="44"/>
@@ -6069,7 +6075,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="173"/>
+      <c r="R17" s="172"/>
       <c r="S17" s="42"/>
       <c r="T17" s="64"/>
       <c r="U17" s="65"/>
@@ -6091,36 +6097,36 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="206"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="182"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="207" t="s">
+      <c r="AB18" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="208"/>
-      <c r="AF18" s="209"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="185"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
       <c r="B19" s="58" t="s">
@@ -6129,31 +6135,31 @@
       <c r="C19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="118" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="72">
         <v>18.244022072348251</v>
       </c>
-      <c r="O19" s="135">
+      <c r="O19" s="134">
         <v>14.459893048128341</v>
       </c>
-      <c r="P19" s="136">
+      <c r="P19" s="135">
         <v>10.657407407407407</v>
       </c>
-      <c r="Q19" s="136">
+      <c r="Q19" s="135">
         <v>10.893004115226338</v>
       </c>
-      <c r="R19" s="177">
+      <c r="R19" s="176">
         <v>10</v>
       </c>
       <c r="S19" s="71">
@@ -6162,7 +6168,7 @@
       <c r="T19" s="72">
         <v>13</v>
       </c>
-      <c r="U19" s="136">
+      <c r="U19" s="135">
         <v>10</v>
       </c>
       <c r="V19" s="74">
@@ -6194,27 +6200,27 @@
         <v>44</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="55"/>
-      <c r="N20" s="141">
+      <c r="N20" s="140">
         <v>0.18</v>
       </c>
-      <c r="O20" s="141">
+      <c r="O20" s="140">
         <v>0.22</v>
       </c>
-      <c r="P20" s="141">
+      <c r="P20" s="140">
         <v>0.13</v>
       </c>
-      <c r="Q20" s="176">
+      <c r="Q20" s="175">
         <v>3.408930423730052E-3</v>
       </c>
-      <c r="R20" s="176">
+      <c r="R20" s="175">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="S20" s="88" t="s">
@@ -6245,24 +6251,24 @@
       <c r="AF20" s="50"/>
     </row>
     <row r="21" spans="2:32" s="3" customFormat="1" ht="47.25">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="118" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="124"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="72">
         <v>1275</v>
       </c>
@@ -6272,10 +6278,10 @@
       <c r="P21" s="72">
         <v>160</v>
       </c>
-      <c r="Q21" s="135">
+      <c r="Q21" s="134">
         <v>316</v>
       </c>
-      <c r="R21" s="135">
+      <c r="R21" s="134">
         <v>668</v>
       </c>
       <c r="S21" s="71">
@@ -6316,27 +6322,27 @@
         <v>64</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="55"/>
-      <c r="N22" s="141">
+      <c r="N22" s="140">
         <v>0.296875</v>
       </c>
-      <c r="O22" s="141">
+      <c r="O22" s="140">
         <v>0.14491978609625669</v>
       </c>
-      <c r="P22" s="141">
+      <c r="P22" s="140">
         <v>0.12654320987654322</v>
       </c>
-      <c r="Q22" s="143">
+      <c r="Q22" s="142">
         <v>5.1847437425506557E-2</v>
       </c>
-      <c r="R22" s="141">
+      <c r="R22" s="140">
         <v>0.17730000000000001</v>
       </c>
       <c r="S22" s="46">
@@ -6379,7 +6385,7 @@
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="63"/>
-      <c r="R23" s="173"/>
+      <c r="R23" s="172"/>
       <c r="S23" s="46"/>
       <c r="T23" s="64"/>
       <c r="U23" s="65"/>
@@ -6401,41 +6407,41 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="205"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="205"/>
-      <c r="U24" s="205"/>
-      <c r="V24" s="205"/>
-      <c r="W24" s="205"/>
-      <c r="X24" s="205"/>
-      <c r="Y24" s="205"/>
-      <c r="Z24" s="206"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="181"/>
+      <c r="Y24" s="181"/>
+      <c r="Z24" s="182"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="207" t="s">
+      <c r="AB24" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="208"/>
-      <c r="AE24" s="208"/>
-      <c r="AF24" s="209"/>
+      <c r="AC24" s="184"/>
+      <c r="AD24" s="184"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="185"/>
     </row>
     <row r="25" spans="2:32" s="3" customFormat="1">
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="104"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="52"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -6450,7 +6456,7 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="28"/>
-      <c r="S25" s="105"/>
+      <c r="S25" s="104"/>
       <c r="T25" s="29"/>
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
@@ -6468,7 +6474,7 @@
     <row r="26" spans="2:32" s="3" customFormat="1">
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="104"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="52"/>
       <c r="F26" s="54"/>
       <c r="G26" s="55"/>
@@ -6483,7 +6489,7 @@
       <c r="P26" s="55"/>
       <c r="Q26" s="56"/>
       <c r="R26" s="46"/>
-      <c r="S26" s="105"/>
+      <c r="S26" s="104"/>
       <c r="T26" s="53"/>
       <c r="U26" s="57"/>
       <c r="V26" s="57"/>
@@ -6565,37 +6571,37 @@
       <c r="AF28" s="50"/>
     </row>
     <row r="29" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="113"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="112"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="115"/>
-      <c r="AD29" s="115"/>
-      <c r="AE29" s="115"/>
-      <c r="AF29" s="116"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="115"/>
     </row>
     <row r="30" spans="2:32" ht="16.5" thickBot="1"/>
     <row r="31" spans="2:32" ht="16.5" thickBot="1">
@@ -6604,34 +6610,34 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="205"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205"/>
-      <c r="T31" s="205"/>
-      <c r="U31" s="205"/>
-      <c r="V31" s="205"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="206"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="181"/>
+      <c r="Z31" s="182"/>
     </row>
     <row r="32" spans="2:32">
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
-      <c r="E32" s="117"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="25"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -6645,7 +6651,7 @@
       <c r="P32" s="26"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="28"/>
-      <c r="S32" s="118"/>
+      <c r="S32" s="117"/>
       <c r="T32" s="29"/>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
@@ -6698,7 +6704,7 @@
       <c r="O34" s="62"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="63"/>
-      <c r="R34" s="173"/>
+      <c r="R34" s="172"/>
       <c r="S34" s="46"/>
       <c r="T34" s="64"/>
       <c r="U34" s="65"/>
@@ -6714,28 +6720,28 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="205"/>
-      <c r="O35" s="205"/>
-      <c r="P35" s="205"/>
-      <c r="Q35" s="205"/>
-      <c r="R35" s="205"/>
-      <c r="S35" s="205"/>
-      <c r="T35" s="205"/>
-      <c r="U35" s="205"/>
-      <c r="V35" s="205"/>
-      <c r="W35" s="205"/>
-      <c r="X35" s="205"/>
-      <c r="Y35" s="205"/>
-      <c r="Z35" s="206"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="181"/>
+      <c r="S35" s="181"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
+      <c r="X35" s="181"/>
+      <c r="Y35" s="181"/>
+      <c r="Z35" s="182"/>
     </row>
     <row r="36" spans="2:26">
       <c r="B36" s="58"/>
@@ -6755,7 +6761,7 @@
       <c r="P36" s="26"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="28"/>
-      <c r="S36" s="105"/>
+      <c r="S36" s="104"/>
       <c r="T36" s="29"/>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -6792,41 +6798,49 @@
       <c r="Z37" s="47"/>
     </row>
     <row r="38" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="113"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="106"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="112"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="E31:Z31"/>
+    <mergeCell ref="E35:Z35"/>
+    <mergeCell ref="E10:Z10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="E24:Z24"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="E8:E9"/>
@@ -6843,21 +6857,13 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="E31:Z31"/>
-    <mergeCell ref="E35:Z35"/>
-    <mergeCell ref="E10:Z10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="E24:Z24"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6865,21 +6871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004243F17B37D36F4AA4A9B4625AA51EE8" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8fabe441ec9bfc9d2c5f4852b45d7d5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50d053a393dfa1f7de5a69862ad415fa" ns2:_="">
     <xsd:import namespace="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
@@ -7037,31 +7028,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECAD675-D530-4568-B4D1-4E32562BA850}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A69DD-9AD8-46BC-BCEB-6F14859909F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{615C56FF-D0BC-4C97-8DF6-53138E3DE5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7077,4 +7059,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A69DD-9AD8-46BC-BCEB-6F14859909F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECAD675-D530-4568-B4D1-4E32562BA850}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="44d2e9c5-510a-4ffc-b183-3fb4a8ef0054"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
+++ b/1. BlackBook Operaciones/2 BlackBook BackEnd080121/2 BlackBook BackEnd080121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://steelgo0-my.sharepoint.com/personal/jose_castillo_steelgo_com/Documents/Escritorio/LibroNegro/1. BlackBook Operaciones/2 BlackBook BackEnd080121/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C927192-718A-424B-BC26-7F702C028ECC}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{FF6A4D62-5B9D-4161-8AF6-57327D78C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{44174D6E-E159-4984-9DC2-5F350ACB2B64}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{718BEB3B-7B62-444F-9197-0D41EC0A9ADA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{718BEB3B-7B62-444F-9197-0D41EC0A9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="1. BB BackEnd" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -1760,8 +1760,14 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1883,13 +1889,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2221,10 +2221,10 @@
   </sheetPr>
   <dimension ref="B1:AG42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2254,25 +2254,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -2282,16 +2282,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="214"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="216"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="215">
+      <c r="AE2" s="217">
         <v>2019</v>
       </c>
-      <c r="AF2" s="216"/>
+      <c r="AF2" s="218"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -2329,25 +2329,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="212"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -2357,8 +2357,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="214"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="216"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -2397,41 +2397,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="202"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="204"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="203" t="s">
+      <c r="AB6" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="205"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="207"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -2469,70 +2469,70 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="196" t="s">
+      <c r="F8" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="192" t="s">
+      <c r="I8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="192" t="s">
+      <c r="J8" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="192" t="s">
+      <c r="K8" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="192" t="s">
+      <c r="L8" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="192" t="s">
+      <c r="N8" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="192" t="s">
+      <c r="O8" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="192" t="s">
+      <c r="P8" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="208" t="s">
+      <c r="Q8" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="196" t="s">
+      <c r="R8" s="198" t="s">
         <v>95</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="186" t="s">
+      <c r="T8" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="188" t="s">
+      <c r="U8" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="190" t="s">
+      <c r="V8" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="192" t="s">
+      <c r="W8" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="194" t="s">
+      <c r="X8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="178" t="s">
+      <c r="Y8" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="206" t="s">
+      <c r="Z8" s="208" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -2545,30 +2545,30 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="197"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="199"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="187"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="207"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="209"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -2596,36 +2596,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="184"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="183" t="s">
+      <c r="AB10" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="185"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="187"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1">
       <c r="B11" s="21"/>
@@ -2864,36 +2864,36 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="181"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="181"/>
-      <c r="U18" s="181"/>
-      <c r="V18" s="181"/>
-      <c r="W18" s="181"/>
-      <c r="X18" s="181"/>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="184"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="183" t="s">
+      <c r="AB18" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="185"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="187"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
       <c r="B19" s="130" t="s">
@@ -3219,9 +3219,7 @@
       <c r="D25" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="177" t="s">
-        <v>96</v>
-      </c>
+      <c r="E25" s="220"/>
       <c r="F25" s="151"/>
       <c r="G25" s="152"/>
       <c r="H25" s="152"/>
@@ -3370,36 +3368,36 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="181"/>
-      <c r="S28" s="181"/>
-      <c r="T28" s="181"/>
-      <c r="U28" s="181"/>
-      <c r="V28" s="181"/>
-      <c r="W28" s="181"/>
-      <c r="X28" s="181"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="184"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="183" t="s">
+      <c r="AB28" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="185"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="186"/>
+      <c r="AF28" s="187"/>
     </row>
     <row r="29" spans="2:32" s="3" customFormat="1">
       <c r="B29" s="58"/>
@@ -3604,28 +3602,28 @@
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="181"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="181"/>
-      <c r="V35" s="181"/>
-      <c r="W35" s="181"/>
-      <c r="X35" s="181"/>
-      <c r="Y35" s="181"/>
-      <c r="Z35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="183"/>
+      <c r="U35" s="183"/>
+      <c r="V35" s="183"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
+      <c r="Z35" s="184"/>
     </row>
     <row r="36" spans="2:32" s="3" customFormat="1">
       <c r="B36" s="145" t="s">
@@ -3738,28 +3736,28 @@
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="181"/>
-      <c r="T39" s="181"/>
-      <c r="U39" s="181"/>
-      <c r="V39" s="181"/>
-      <c r="W39" s="181"/>
-      <c r="X39" s="181"/>
-      <c r="Y39" s="181"/>
-      <c r="Z39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="184"/>
     </row>
     <row r="40" spans="2:32">
       <c r="B40" s="58"/>
@@ -3895,10 +3893,10 @@
   </sheetPr>
   <dimension ref="B1:AG40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -3928,25 +3926,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -3956,16 +3954,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="214"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="216"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="215">
+      <c r="AE2" s="217">
         <v>2019</v>
       </c>
-      <c r="AF2" s="216"/>
+      <c r="AF2" s="218"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -4003,25 +4001,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="212"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -4031,8 +4029,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="214"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="216"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -4071,41 +4069,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="202"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="204"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="203" t="s">
+      <c r="AB6" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="205"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="207"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -4143,70 +4141,70 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="196" t="s">
+      <c r="F8" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="192" t="s">
+      <c r="I8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="192" t="s">
+      <c r="J8" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="192" t="s">
+      <c r="K8" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="192" t="s">
+      <c r="L8" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="192" t="s">
+      <c r="N8" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="192" t="s">
+      <c r="O8" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="192" t="s">
+      <c r="P8" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="208" t="s">
+      <c r="Q8" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="208" t="s">
+      <c r="R8" s="210" t="s">
         <v>95</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="186" t="s">
+      <c r="T8" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="188" t="s">
+      <c r="U8" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="190" t="s">
+      <c r="V8" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="192" t="s">
+      <c r="W8" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="194" t="s">
+      <c r="X8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="178" t="s">
+      <c r="Y8" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="206" t="s">
+      <c r="Z8" s="208" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -4219,30 +4217,30 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="209"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="211"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="187"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="207"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="209"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -4270,36 +4268,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="184"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="183" t="s">
+      <c r="AB10" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="185"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="187"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1">
       <c r="B11" s="21"/>
@@ -4538,36 +4536,36 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="181"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="181"/>
-      <c r="U18" s="181"/>
-      <c r="V18" s="181"/>
-      <c r="W18" s="181"/>
-      <c r="X18" s="181"/>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="184"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="183" t="s">
+      <c r="AB18" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="185"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="187"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1">
       <c r="B19" s="58" t="s">
@@ -4703,7 +4701,7 @@
       <c r="D21" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="218" t="s">
+      <c r="E21" s="177" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="85"/>
@@ -4766,9 +4764,7 @@
       <c r="D22" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="219" t="s">
-        <v>96</v>
-      </c>
+      <c r="E22" s="179"/>
       <c r="F22" s="96"/>
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
@@ -4831,7 +4827,7 @@
       <c r="D23" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="178" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="54"/>
@@ -4974,36 +4970,36 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="181"/>
-      <c r="S26" s="181"/>
-      <c r="T26" s="181"/>
-      <c r="U26" s="181"/>
-      <c r="V26" s="181"/>
-      <c r="W26" s="181"/>
-      <c r="X26" s="181"/>
-      <c r="Y26" s="181"/>
-      <c r="Z26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="184"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="183" t="s">
+      <c r="AB26" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="184"/>
-      <c r="AD26" s="184"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="185"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="186"/>
+      <c r="AF26" s="187"/>
     </row>
     <row r="27" spans="2:32" s="3" customFormat="1">
       <c r="B27" s="58"/>
@@ -5177,28 +5173,28 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="184"/>
     </row>
     <row r="34" spans="2:26">
       <c r="B34" s="58"/>
@@ -5287,28 +5283,28 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="181"/>
-      <c r="M37" s="181"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="181"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="181"/>
-      <c r="V37" s="181"/>
-      <c r="W37" s="181"/>
-      <c r="X37" s="181"/>
-      <c r="Y37" s="181"/>
-      <c r="Z37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="183"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="183"/>
+      <c r="U37" s="183"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="183"/>
+      <c r="X37" s="183"/>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="184"/>
     </row>
     <row r="38" spans="2:26">
       <c r="B38" s="58"/>
@@ -5487,25 +5483,25 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5515,16 +5511,16 @@
       <c r="Z2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="214"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="216"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="215">
+      <c r="AE2" s="217">
         <v>2019</v>
       </c>
-      <c r="AF2" s="216"/>
+      <c r="AF2" s="218"/>
     </row>
     <row r="3" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B3" s="1"/>
@@ -5562,25 +5558,25 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="212"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -5590,8 +5586,8 @@
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="214"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="216"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -5630,41 +5626,41 @@
       <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="2:32" s="3" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="202"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="204"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="203" t="s">
+      <c r="AB6" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="205"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="207"/>
     </row>
     <row r="7" spans="2:32" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B7" s="8"/>
@@ -5702,70 +5698,70 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="196" t="s">
+      <c r="F8" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="192" t="s">
+      <c r="I8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="192" t="s">
+      <c r="J8" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="192" t="s">
+      <c r="K8" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="192" t="s">
+      <c r="L8" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="192" t="s">
+      <c r="N8" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="192" t="s">
+      <c r="O8" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="192" t="s">
+      <c r="P8" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="208" t="s">
+      <c r="Q8" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="196" t="s">
+      <c r="R8" s="198" t="s">
         <v>95</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="186" t="s">
+      <c r="T8" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="188" t="s">
+      <c r="U8" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="190" t="s">
+      <c r="V8" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="192" t="s">
+      <c r="W8" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="194" t="s">
+      <c r="X8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="178" t="s">
+      <c r="Y8" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="206" t="s">
+      <c r="Z8" s="208" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -5778,30 +5774,30 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="197"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="199"/>
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="187"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="207"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="209"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15" t="s">
         <v>31</v>
@@ -5829,36 +5825,36 @@
       <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="184"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="183" t="s">
+      <c r="AB10" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="185"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="187"/>
     </row>
     <row r="11" spans="2:32" s="3" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="B11" s="21"/>
@@ -6097,36 +6093,36 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="181"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="181"/>
-      <c r="U18" s="181"/>
-      <c r="V18" s="181"/>
-      <c r="W18" s="181"/>
-      <c r="X18" s="181"/>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="184"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="183" t="s">
+      <c r="AB18" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="185"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="187"/>
     </row>
     <row r="19" spans="2:32" s="3" customFormat="1" ht="31.5">
       <c r="B19" s="58" t="s">
@@ -6407,36 +6403,36 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="181"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="181"/>
-      <c r="U24" s="181"/>
-      <c r="V24" s="181"/>
-      <c r="W24" s="181"/>
-      <c r="X24" s="181"/>
-      <c r="Y24" s="181"/>
-      <c r="Z24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="184"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="183" t="s">
+      <c r="AB24" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AC24" s="184"/>
-      <c r="AD24" s="184"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="185"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="187"/>
     </row>
     <row r="25" spans="2:32" s="3" customFormat="1">
       <c r="B25" s="58"/>
@@ -6610,28 +6606,28 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="181"/>
-      <c r="Y31" s="181"/>
-      <c r="Z31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="184"/>
     </row>
     <row r="32" spans="2:32">
       <c r="B32" s="58"/>
@@ -6720,28 +6716,28 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="181"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="181"/>
-      <c r="V35" s="181"/>
-      <c r="W35" s="181"/>
-      <c r="X35" s="181"/>
-      <c r="Y35" s="181"/>
-      <c r="Z35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="183"/>
+      <c r="U35" s="183"/>
+      <c r="V35" s="183"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
+      <c r="Z35" s="184"/>
     </row>
     <row r="36" spans="2:26">
       <c r="B36" s="58"/>
